--- a/Docs/Craigslist-Job-Data-Dictionary.xlsx
+++ b/Docs/Craigslist-Job-Data-Dictionary.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a604a5f6e701d938/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aucap\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F68F9B6-D7EF-464A-9BAB-EEC72A7F2971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF1712-EE41-4FE1-AEA0-4C384FE11A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0797C9B-883D-4402-91B8-DF6833030A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
   <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
     <t xml:space="preserve">DataType </t>
   </si>
   <si>
@@ -101,9 +99,6 @@
     <t>Integer</t>
   </si>
   <si>
-    <t xml:space="preserve">Part time or Full Time </t>
-  </si>
-  <si>
     <t>Full title of the job for hire</t>
   </si>
   <si>
@@ -113,12 +108,6 @@
     <t xml:space="preserve">Price lister is willing to pay; some do not specify </t>
   </si>
   <si>
-    <t xml:space="preserve">Neighborhood in Long Island, New York the job is located in </t>
-  </si>
-  <si>
-    <t>HREF</t>
-  </si>
-  <si>
     <t xml:space="preserve">Integer </t>
   </si>
   <si>
@@ -126,13 +115,91 @@
   </si>
   <si>
     <t>Data Dictionary  for Craigslist_Jobs_LI</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dim_Location </t>
+  </si>
+  <si>
+    <t>Dim_DateTime</t>
+  </si>
+  <si>
+    <t>Dim_Job</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Lagitude (Location)</t>
+  </si>
+  <si>
+    <t>Latitude (Location)</t>
+  </si>
+  <si>
+    <t>Compensation (Job)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment Type (Job) </t>
+  </si>
+  <si>
+    <t>Job title (Job)</t>
+  </si>
+  <si>
+    <t>Title (Job)</t>
+  </si>
+  <si>
+    <t>Link (Job)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location (location) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment </t>
+  </si>
+  <si>
+    <t>compensation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location (maybe rename neighborhood) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">latitude </t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column Description </t>
+  </si>
+  <si>
+    <t>1 = full-time , 2 = part-time , 3 = employee's choice , 4 = contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term, Acronym, or Code Definitions </t>
+  </si>
+  <si>
+    <t>Type of employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neighborhood or borough of the job listing. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +209,14 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -168,9 +243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,155 +581,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C752B055-50DB-4715-AE36-F1860808F88A}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="61.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A83E63-7E08-42B4-8A7D-D68E772E80FD}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
         <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -662,6 +889,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="612d4b61-6a66-4ee1-9415-3298b2a7c61c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0F45754558FC246A97F25ECBCA423EE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="92ecafa4ba24644b25eca555d5603426">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="612d4b61-6a66-4ee1-9415-3298b2a7c61c" xmlns:ns4="2fb1e9d5-3a49-40f8-8c2d-56b48f5663ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e2ff13374c50b5f75e697ff300c8dced" ns3:_="" ns4:_="">
     <xsd:import namespace="612d4b61-6a66-4ee1-9415-3298b2a7c61c"/>
@@ -864,7 +1099,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -873,15 +1108,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="612d4b61-6a66-4ee1-9415-3298b2a7c61c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C831E365-5C88-46B9-A5CF-E9E21E0BB100}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="612d4b61-6a66-4ee1-9415-3298b2a7c61c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2fb1e9d5-3a49-40f8-8c2d-56b48f5663ef"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ADFE8AF-C3B4-4C54-A99F-F071FE7A9408}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -900,27 +1144,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E726261C-B4EA-4A2F-A7A2-71F9A9F6F086}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C831E365-5C88-46B9-A5CF-E9E21E0BB100}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="612d4b61-6a66-4ee1-9415-3298b2a7c61c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2fb1e9d5-3a49-40f8-8c2d-56b48f5663ef"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>